--- a/Data/Input/debugProcesses.xlsx
+++ b/Data/Input/debugProcesses.xlsx
@@ -458,7 +458,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -484,10 +484,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.35">
@@ -495,10 +495,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C3" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" x14ac:dyDescent="0.35">
@@ -506,10 +506,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="21" x14ac:dyDescent="0.35">
@@ -517,10 +517,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C5" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21" x14ac:dyDescent="0.35">
@@ -528,10 +528,10 @@
         <v>7</v>
       </c>
       <c r="B6" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Input/debugProcesses.xlsx
+++ b/Data/Input/debugProcesses.xlsx
@@ -458,7 +458,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
